--- a/calculateur pos.xlsx
+++ b/calculateur pos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theoc\Desktop\PR209_2048\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0A749E-133B-40F1-AD14-AEF343FFBA54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFE453C-E848-4CCB-A04E-B0373ADF7C77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58025642-9D0C-42FD-AA88-857C457D9647}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>IDX</t>
   </si>
@@ -55,13 +55,34 @@
   </si>
   <si>
     <t>pos_screen HEX</t>
+  </si>
+  <si>
+    <t>côté grille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x init </t>
+  </si>
+  <si>
+    <t>y_init</t>
+  </si>
+  <si>
+    <t>nbr px/col</t>
+  </si>
+  <si>
+    <t>pos_init</t>
+  </si>
+  <si>
+    <t>CASES A MODIF</t>
+  </si>
+  <si>
+    <t>Offset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +90,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,8 +146,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,383 +475,714 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47E3EC6-131F-44C3-8937-18192AC4A1C2}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="15.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2"/>
+    <col min="8" max="8" width="25.5703125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <f>MOD(A2,4)*$H$6</f>
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f>INT(A2/4)*$H$6</f>
         <v>0</v>
       </c>
-      <c r="D2">
-        <f>1639+(B2+C2*H9)</f>
-        <v>1639</v>
-      </c>
-      <c r="E2" t="str">
+      <c r="D2" s="1">
+        <f>$J$15+(B2+C2*$H$9) -1</f>
+        <v>12879</v>
+      </c>
+      <c r="E2" s="1" t="str">
         <f>DEC2HEX(D2)</f>
-        <v>667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v>324F</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <f>MOD(A3,4)*$H$6</f>
-        <v>20</v>
-      </c>
-      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1">
         <f>INT(A3/4)*$H$6</f>
         <v>0</v>
       </c>
-      <c r="D3">
-        <f>1639+(B3+C3*$H$9)</f>
-        <v>1659</v>
-      </c>
-      <c r="E3" t="str">
+      <c r="D3" s="1">
+        <f>$J$15+(B3+C3*$H$9) -1</f>
+        <v>12919</v>
+      </c>
+      <c r="E3" s="1" t="str">
         <f t="shared" ref="E3:E17" si="0">DEC2HEX(D3)</f>
-        <v>67B</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <v>3277</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B17" si="1">MOD(A4,4)*$H$6</f>
+      <c r="B4" s="1">
+        <f>MOD(A4,4)*$H$6</f>
+        <v>80</v>
+      </c>
+      <c r="C4" s="1">
+        <f>INT(A4/4)*$H$6</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f>$J$15+(B4+C4*$H$9) -1</f>
+        <v>12959</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>329F</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <f>MOD(A5,4)*$H$6</f>
+        <v>120</v>
+      </c>
+      <c r="C5" s="1">
+        <f>INT(A5/4)*$H$6</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f>$J$15+(B5+C5*$H$9) -1</f>
+        <v>12999</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>32C7</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <f>MOD(A6,4)*$H$6</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <f>INT(A6/4)*$H$6</f>
         <v>40</v>
       </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C17" si="2">INT(A4/4)*$H$6</f>
+      <c r="D6" s="1">
+        <f>$J$15+(B6+C6*$H$9) -1</f>
+        <v>25679</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>644F</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <f>H6*4</f>
+        <v>160</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <f>MOD(A7,4)*$H$6</f>
+        <v>40</v>
+      </c>
+      <c r="C7" s="1">
+        <f>INT(A7/4)*$H$6</f>
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <f>$J$15+(B7+C7*$H$9) -1</f>
+        <v>25719</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>6477</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <f>MOD(A8,4)*$H$6</f>
+        <v>80</v>
+      </c>
+      <c r="C8" s="1">
+        <f>INT(A8/4)*$H$6</f>
+        <v>40</v>
+      </c>
+      <c r="D8" s="1">
+        <f>$J$15+(B8+C8*$H$9) -1</f>
+        <v>25759</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>649F</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <f>MOD(A9,4)*$H$6</f>
+        <v>120</v>
+      </c>
+      <c r="C9" s="1">
+        <f>INT(A9/4)*$H$6</f>
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <f>$J$15+(B9+C9*$H$9) -1</f>
+        <v>25799</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>64C7</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3">
+        <v>320</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <f>(H9-J6)/2</f>
+        <v>80</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <f>MOD(A10,4)*$H$6</f>
         <v>0</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D17" si="3">1639+(B4+C4*$H$9)</f>
-        <v>1679</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>68F</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="2"/>
+      <c r="C10" s="1">
+        <f>INT(A10/4)*$H$6</f>
+        <v>80</v>
+      </c>
+      <c r="D10" s="1">
+        <f>$J$15+(B10+C10*$H$9) -1</f>
+        <v>38479</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>964F</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <f>MOD(A11,4)*$H$6</f>
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <f>INT(A11/4)*$H$6</f>
+        <v>80</v>
+      </c>
+      <c r="D11" s="1">
+        <f>$J$15+(B11+C11*$H$9) -1</f>
+        <v>38519</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>9677</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <f>MOD(A12,4)*$H$6</f>
+        <v>80</v>
+      </c>
+      <c r="C12" s="1">
+        <f>INT(A12/4)*$H$6</f>
+        <v>80</v>
+      </c>
+      <c r="D12" s="1">
+        <f>$J$15+(B12+C12*$H$9) -1</f>
+        <v>38559</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>969F</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3">
+        <v>240</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <f>(H12-J6)/2</f>
+        <v>40</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <f>MOD(A13,4)*$H$6</f>
+        <v>120</v>
+      </c>
+      <c r="C13" s="1">
+        <f>INT(A13/4)*$H$6</f>
+        <v>80</v>
+      </c>
+      <c r="D13" s="1">
+        <f>$J$15+(B13+C13*$H$9) -1</f>
+        <v>38599</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>96C7</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <f>MOD(A14,4)*$H$6</f>
         <v>0</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="3"/>
-        <v>1699</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>6A3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="1"/>
+      <c r="C14" s="1">
+        <f>INT(A14/4)*$H$6</f>
+        <v>120</v>
+      </c>
+      <c r="D14" s="1">
+        <f>$J$15+(B14+C14*$H$9) -1</f>
+        <v>51279</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C84F</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <f>MOD(A15,4)*$H$6</f>
+        <v>40</v>
+      </c>
+      <c r="C15" s="1">
+        <f>INT(A15/4)*$H$6</f>
+        <v>120</v>
+      </c>
+      <c r="D15" s="1">
+        <f>$J$15+(B15+C15*$H$9) -1</f>
+        <v>51319</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C877</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="3"/>
-        <v>4839</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>12E7</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="3"/>
-        <v>4859</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>12FB</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="3"/>
-        <v>4879</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>130F</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="3"/>
-        <v>4899</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>1323</v>
-      </c>
-      <c r="H9">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="3"/>
-        <v>8039</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>1F67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="3"/>
-        <v>8059</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>1F7B</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="3"/>
-        <v>8079</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>1F8F</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="3"/>
-        <v>8099</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>1FA3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="3"/>
-        <v>11239</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>2BE7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="3"/>
-        <v>11259</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>2BFB</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1">
+        <f>H15+J9+J12*H9</f>
+        <v>12880</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="3"/>
-        <v>11279</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>2C0F</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B16" s="1">
+        <f>MOD(A16,4)*$H$6</f>
+        <v>80</v>
+      </c>
+      <c r="C16" s="1">
+        <f>INT(A16/4)*$H$6</f>
+        <v>120</v>
+      </c>
+      <c r="D16" s="1">
+        <f>$J$15+(B16+C16*$H$9) -1</f>
+        <v>51359</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C89F</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="3"/>
-        <v>11299</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>2C23</v>
-      </c>
+      <c r="B17" s="1">
+        <f>MOD(A17,4)*$H$6</f>
+        <v>120</v>
+      </c>
+      <c r="C17" s="1">
+        <f>INT(A17/4)*$H$6</f>
+        <v>120</v>
+      </c>
+      <c r="D17" s="1">
+        <f>$J$15+(B17+C17*$H$9) -1</f>
+        <v>51399</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C8C7</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
